--- a/assets/disciplinas/LOT2042.xlsx
+++ b/assets/disciplinas/LOT2042.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Transmitir aos alunos os conceitos básicos e fundamentais no estudo de processos biotecnológicos. - Demonstrar as principais etapas no desenvolvimento dos processos bioquímicos industriais e os principais fatores que influenciam no desenvolvimento e otimização destes processos. - Apresentar aos alunos uma visão das aplicações potenciais e estratégicas da biotecnologia moderna - Aprimorar o raciocínio e despertar o espírito crítico e a criatividade dos alunos</t>
+    <t>1814052 - Silvio Silverio da Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1814052 - Silvio Silverio da Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução. Processos fermentativos e enzimáticos. Processos bioquímicos aplicados à indústria de alimentos. Processos biotecnológicos de importância industrial. Tecnologia enzimática em diferentes setores industriais. Fundamentos de engenharia de bioprocessos aplicados a processos bioquímicos. Variação de escala em bioprocessos. Introdução às técnicas de separação/purificação de produtos biotecnológicos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução: importância dos bioprocessos e aplicações industriais.Processos fermentativos e enzimáticos: tipos de processos fermentativos, matérias primas, obtenção de produtos.Processos bioquímicos aplicados à indústria de alimentos: processamento de alimentos, fases do processamento de produtos alimentícios, alterações bioquímicas em alimentos, oxidação de lipídeos, escurecimento enzimático e não enzimático, controles industriais das alterações bioquímicas.Processos biotecnológicos de importância industrial: descrição e estudo de casos de alguns processos biotecnológicos.Tecnologia enzimática em diferentes setores industriais. Fundamentos de engenharia de bioprocessos aplicados a processos bioquímicos: transferência de oxigênio e respiração microbiana: transferência de massa (transferência por convecção em sistema gás-líquido; respiração microbiana; transferência de O2 da bolha de gás para a célula); transferência de O2 em biorreator (efeitos dos aspectos do dimensionamento e operacionais do biorreator - bolhas, aeração, agitação e propriedades do meio, agentes antiespumantes, temperatura, pressão do gás e pressão parcial de oxigênio). Transferência de potência e oxigênio em biorreator agitado e aerado. Ampliação de escala em bioprocessos.Introdução às técnicas de separação/purificação de produtos biotecnológicos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Os alunos serão avaliados formalmente por uma prova teórica (P) e trabalhos (T). A ponderação das notas será de 70% para a prova teórica (P) e 30% para a média aritmética das notas dos trabalhos (T), ou seja: Média Final do período letivo normal (MF) = (0,7xP +0,3xT).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão aprovados os alunos que obtiverem média do período letivo normal igual ou maior que 5.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova (PR) para alunos que tenham MF maior ou igual a 3,0 e menor do que 5,0 e pelo menos 70% de frequência. A nota de recuperação (NR) será a média simples entre a média final (MF) e a prova de recuperação (PR). Será considerado aprovado o aluno com NR maior ou igual a 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1.Schmidell, W.; Lima, U. A.; Aquarone, E.; Borzani, W. Biotecnologia Industrial  Engenharia Bioquímica, vol. 2, São Paulo: Edgard Blücher, 2001. 2. Borzani, W.; Schmidell, W.; Lima, U. A.; Aquarone, E. Biotecnologia Industrial. Fundamentos Vol. 1. São Paulo: Ed. Edgard Blücher,  2001. 3. Manual of industrial microbiology and biotechnology - Demain, A. L.; Solomon, N.A. Eds.Washington, American Society for Microbiology, 1986. 4. Fermentation and Enzyme Technology - Wang, D.C. et al. New York, Wiley-Interscience, 1979. 5. Princípios de Tecnologia de Alimentos - Gava, A.J. São Paulo, Nobel, 1983. 6. LIMA , U. A et al. Biotecnología Industrial, Biotecnologia na produção de alimentos - Série Biotecnología, vol4. Ed. Edgard Blucher,Ltda , 2001. 7. Tecnologia de Alimentos - José Evangelista -Livraria</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -493,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,34 +609,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -659,77 +653,66 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2042.xlsx
+++ b/assets/disciplinas/LOT2042.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Transmitir aos alunos os conceitos básicos e fundamentais no estudo de processos biotecnológicos. - Demonstrar as principais etapas no desenvolvimento dos processos bioquímicos industriais e os principais fatores que influenciam no desenvolvimento e otimização destes processos. - Apresentar aos alunos uma visão das aplicações potenciais e estratégicas da biotecnologia moderna - Aprimorar o raciocínio e despertar o espírito crítico e a criatividade dos alunos</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1814052 - Silvio Silverio da Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução. Processos fermentativos e enzimáticos. Processos bioquímicos aplicados à indústria de alimentos. Processos biotecnológicos de importância industrial. Tecnologia enzimática em diferentes setores industriais. Fundamentos de engenharia de bioprocessos aplicados a processos bioquímicos. Variação de escala em bioprocessos. Introdução às técnicas de separação/purificação de produtos biotecnológicos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução: importância dos bioprocessos e aplicações industriais.Processos fermentativos e enzimáticos: tipos de processos fermentativos, matérias primas, obtenção de produtos.Processos bioquímicos aplicados à indústria de alimentos: processamento de alimentos, fases do processamento de produtos alimentícios, alterações bioquímicas em alimentos, oxidação de lipídeos, escurecimento enzimático e não enzimático, controles industriais das alterações bioquímicas.Processos biotecnológicos de importância industrial: descrição e estudo de casos de alguns processos biotecnológicos.Tecnologia enzimática em diferentes setores industriais. Fundamentos de engenharia de bioprocessos aplicados a processos bioquímicos: transferência de oxigênio e respiração microbiana: transferência de massa (transferência por convecção em sistema gás-líquido; respiração microbiana; transferência de O2 da bolha de gás para a célula); transferência de O2 em biorreator (efeitos dos aspectos do dimensionamento e operacionais do biorreator - bolhas, aeração, agitação e propriedades do meio, agentes antiespumantes, temperatura, pressão do gás e pressão parcial de oxigênio). Transferência de potência e oxigênio em biorreator agitado e aerado. Ampliação de escala em bioprocessos.Introdução às técnicas de separação/purificação de produtos biotecnológicos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Os alunos serão avaliados formalmente por uma prova teórica (P) e trabalhos (T). A ponderação das notas será de 70% para a prova teórica (P) e 30% para a média aritmética das notas dos trabalhos (T), ou seja: Média Final do período letivo normal (MF) = (0,7xP +0,3xT).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Os alunos serão avaliados formalmente por uma prova teórica (P) e trabalhos (T). A ponderação das notas será de 70% para a prova teórica (P) e 30% para a média aritmética das notas dos trabalhos (T), ou seja: Média Final do período letivo normal (MF) = (0,7xP +0,3xT).</t>
+    <t>Serão aprovados os alunos que obtiverem média do período letivo normal igual ou maior que 5.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aprovados os alunos que obtiverem média do período letivo normal igual ou maior que 5.</t>
+    <t>A recuperação será feita por meio de uma prova (PR) para alunos que tenham MF maior ou igual a 3,0 e menor do que 5,0 e pelo menos 70% de frequência. A nota de recuperação (NR) será a média simples entre a média final (MF) e a prova de recuperação (PR). Será considerado aprovado o aluno com NR maior ou igual a 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova (PR) para alunos que tenham MF maior ou igual a 3,0 e menor do que 5,0 e pelo menos 70% de frequência. A nota de recuperação (NR) será a média simples entre a média final (MF) e a prova de recuperação (PR). Será considerado aprovado o aluno com NR maior ou igual a 5,0.</t>
+    <t>1.Schmidell, W.; Lima, U. A.; Aquarone, E.; Borzani, W. Biotecnologia Industrial  Engenharia Bioquímica, vol. 2, São Paulo: Edgard Blücher, 2001. 2. Borzani, W.; Schmidell, W.; Lima, U. A.; Aquarone, E. Biotecnologia Industrial. Fundamentos Vol. 1. São Paulo: Ed. Edgard Blücher,  2001. 3. Manual of industrial microbiology and biotechnology - Demain, A. L.; Solomon, N.A. Eds.Washington, American Society for Microbiology, 1986. 4. Fermentation and Enzyme Technology - Wang, D.C. et al. New York, Wiley-Interscience, 1979. 5. Princípios de Tecnologia de Alimentos - Gava, A.J. São Paulo, Nobel, 1983. 6. LIMA , U. A et al. Biotecnología Industrial, Biotecnologia na produção de alimentos - Série Biotecnología, vol4. Ed. Edgard Blucher,Ltda , 2001. 7. Tecnologia de Alimentos - José Evangelista -Livraria</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -609,37 +618,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -653,66 +659,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
